--- a/lista de rest.xlsx
+++ b/lista de rest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Pollex\FreeTime\Laboratoria\Tercer Sprint\foodmap-jquery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Pollex\FreeTime\Laboratoria\Tercer Sprint\foodmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="209">
   <si>
     <t>DON ROSALINO</t>
-  </si>
-  <si>
-    <t>AV. ROOSEVELT FRANKLIN DELANO  N° 5899-5897 URB. LA AURORA</t>
   </si>
   <si>
     <t>MIRAFLORES</t>
@@ -296,9 +293,6 @@
   </si>
   <si>
     <t>AMORAMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AV. BOLOGNESI N° 752 </t>
   </si>
   <si>
     <t>01 - 6199570</t>
@@ -604,13 +598,133 @@
   <si>
     <t>cachiche.jpg</t>
   </si>
+  <si>
+    <t>muelle.jpg</t>
+  </si>
+  <si>
+    <t>amoramar.jpg</t>
+  </si>
+  <si>
+    <t>eliazar.jpg</t>
+  </si>
+  <si>
+    <t>cordano.jpg</t>
+  </si>
+  <si>
+    <t>trattoria.jpg</t>
+  </si>
+  <si>
+    <t>club-social.jpg</t>
+  </si>
+  <si>
+    <t>fu-lai.jpg</t>
+  </si>
+  <si>
+    <t>joy-lao.jpg</t>
+  </si>
+  <si>
+    <t>fayke.jpg</t>
+  </si>
+  <si>
+    <t>don-vito.jpg</t>
+  </si>
+  <si>
+    <t>restaurante-javier.jpg</t>
+  </si>
+  <si>
+    <t>granja-azul.jpg</t>
+  </si>
+  <si>
+    <t>punta-sal.jpg</t>
+  </si>
+  <si>
+    <t>Av. Aviación 2667, San Borja 15037</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3901.2742554645574!2d-77.00480768585558!3d-12.093367746060187!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c7d0ef8b8fad%3A0x1add09e9a34164db!2sDon+Rosalino+Ristorante!5e0!3m2!1ses-419!2spe!4v1514709517882" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3901.892169528786!2d-77.03737368585627!3d-12.050939645257642!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c8c86849ab9d%3A0xb17bbd9ca26435ef!2sGran+Hotel+Bolivar!5e0!3m2!1ses-419!2spe!4v1514709627532" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3901.492179318497!2d-77.08799958608932!3d-12.078421106057226!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c971b16b5a03%3A0x82d8d6949d75d0fe!2sLa+Red!5e0!3m2!1ses-419!2spe!4v1514709671588" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3901.7941277760037!2d-77.04075638585617!3d-12.057681345384971!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c8c6b29fc647%3A0x2929cc44fe536dc7!2sPuerto+Norte!5e0!3m2!1ses-419!2spe!4v1514709847787" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3901.1096640724522!2d-76.96720838585543!3d-12.104644446273992!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c7a01bef058d%3A0xab137287ff7d78ef!2sPunto+Azul!5e0!3m2!1ses-419!2spe!4v1514709873858" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3901.340477299774!2d-77.00894568585565!3d-12.088827745974235!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c7d439e7608b%3A0x44ac470b5c5f11b5!2sAv.+Javier+Prado+Este+1860%2C+San+Borja+15036!5e0!3m2!1ses-419!2spe!4v1514709916331" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d31214.495134787176!2d-77.05437456044923!3d-12.056460100000008!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c8c6dd7a7505%3A0x5d438f30b1a6d7fa!2sChili&amp;#39;s+-+Centro+C%C3%ADvico!5e0!3m2!1ses-419!2spe!4v1514709942035" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3900.6688768466893!2d-77.02049347041597!3d-12.134793394240074!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105b7fc9d047449%3A0x51080dfcf8a5fb67!2sEl+Hornero!5e0!3m2!1ses-419!2spe!4v1514709981587" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3900.7578501716043!2d-77.005839585855!3d-12.128713746730995!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c7f8a69425ad%3A0x525938e71c04676a!2sAv.+Alfredo+Benavides+2990%2C+Santiago+de+Surco+15048!5e0!3m2!1ses-419!2spe!4v1514710000523" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3888.316092351541!2d-76.38201158584148!3d-12.951614162915556!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x910ff72742ae135f%3A0x7f358048921ee1b5!2sJr.+Tacna+896%2C+Quilman%C3%A1!5e0!3m2!1ses-419!2spe!4v1514710029974" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3901.0103066339116!2d-77.05074568585523!3d-12.111446746403102!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c83658249d37%3A0xf8109d8136a004d4!2sRestaurant+El+Mercado!5e0!3m2!1ses-419!2spe!4v1514710065076" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3900.8434417053713!2d-77.03825428585516!3d-12.122862346619806!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c8224d3bc14f%3A0x5708ede36e4e145a!2sBrujas+de+Cachiche!5e0!3m2!1ses-419!2spe!4v1514710090062" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3901.164731514189!2d-77.0390604858555!3d-12.100872746202475!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c8411ceff455%3A0x650fe4d30b996001!2sSegundo+Muelle!5e0!3m2!1ses-419!2spe!4v1514710126779" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3901.9525510801077!2d-77.04774368585632!3d-12.046785745179271!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c9316e4e791b%3A0x5cb890514988bafe!2sRestaurant+Bar+Caf%C3%A9+Trattoria+Italia!5e0!3m2!1ses-419!2spe!4v1514710147819" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3900.7293906149143!2d-77.03281768585506!3d-12.130658746767933!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105b7e02cedc6e1%3A0x1d7209d0fc9d2c10!2sClub+Social+Miraflores!5e0!3m2!1ses-419!2spe!4v1514710182451" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3901.952674616025!2d-77.03477358585627!3d-12.046777245179065!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c8b60f380665%3A0x8c9b1c586652b783!2sRestaurant+Chifa+Estrella+Fu+Lai!5e0!3m2!1ses-419!2spe!4v1514710205276" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>García y García 175, Barranco 15063</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3900.531823367146!2d-77.02027418585475!3d-12.14415254702465!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105b7f11b3318d3%3A0x662e2432264c7b76!2sAmoramar!5e0!3m2!1ses-419!2spe!4v1514710256690" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3901.9403176923424!2d-77.03567298585631!3d-12.047627445195094!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c8c9e1c426c9%3A0xf0388cb5e879fb33!2sEl+Fayke+Piurano!5e0!3m2!1ses-419!2spe!4v1514710275897" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3900.8072406060937!2d-77.0240682858551!3d-12.125337546666824!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c8034b7277f9%3A0xd9bb27ea4b0eb2d2!2sTrattoria+Don+Vito!5e0!3m2!1ses-419!2spe!4v1514710294009" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3900.448856761338!2d-77.02532268585472!3d-12.149814747132414!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105b7ed73670443%3A0x343155b2bc5028a7!2sRestaurante+Javier!5e0!3m2!1ses-419!2spe!4v1514710314175" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3900.8157182131!2d-77.03085598585506!3d-12.124757946655832!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c81eb39e1e4b%3A0xd45b216d3b45c01!2sEliazar+Restaurante+-+Atlantic+City!5e0!3m2!1ses-419!2spe!4v1514710345760" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3901.980983876351!2d-77.03112778585636!3d-12.04482924514238!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c8b46ad41ccf%3A0xd8575a0717e6352!2sBar+Restaurant+Cordano!5e0!3m2!1ses-419!2spe!4v1514710361261" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d62427.3056827762!2d-77.04050296527758!3d-12.063696575486139!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c8b086b2c41b%3A0x6399b228898af0c3!2sCHIFA+SAN+JOY+LAO!5e0!3m2!1ses-419!2spe!4v1514710383200" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3902.155150701607!2d-76.88976168585657!3d-12.03283774491612!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c3d840426749%3A0x536027afe9f97adc!2sGranja+Azul!5e0!3m2!1ses-419!2spe!4v1514710422162" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d62423.957607992386!2d-77.04395990931677!3d-12.07806621139648!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x9105c840e5b69de7%3A0x6f1727a9ed355b34!2sRestaurante+Punta+Sal+-+San+Isidro!5e0!3m2!1ses-419!2spe!4v1514710450819" width="400" height="300" frameborder="0" style="border:0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -768,9 +882,8 @@
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -899,7 +1012,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1055,15 +1168,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1157,13 +1261,13 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -1269,13 +1373,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="180">
     <cellStyle name="20% - Énfasis1 2" xfId="1"/>
@@ -1735,985 +1837,1089 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J3">
         <v>4.5</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J4">
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J5">
         <v>4.9000000000000004</v>
       </c>
       <c r="K5" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="M5" t="s">
-        <v>148</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J6">
         <v>4.4000000000000004</v>
       </c>
       <c r="K6" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J7">
         <v>3.9</v>
       </c>
       <c r="K7" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J8">
         <v>4.8</v>
       </c>
       <c r="K8" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="M8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J9">
         <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="G10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J10" s="2">
         <v>3.5</v>
       </c>
       <c r="K10" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J11" s="2">
         <v>3.9000000000000004</v>
       </c>
       <c r="K11" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="G12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J12" s="2">
         <v>3.4000000000000004</v>
       </c>
       <c r="K12" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J13" s="2">
         <v>2.9</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>170</v>
+      <c r="K13" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J14" s="2">
         <v>3.8</v>
       </c>
+      <c r="K14" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="M14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J15" s="2">
         <v>3</v>
       </c>
+      <c r="K15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="M15" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J16" s="2">
         <v>2.5</v>
       </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="M16" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J17" s="2">
         <v>2.9000000000000004</v>
       </c>
+      <c r="K17" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="M17" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="G18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J18" s="2">
         <v>2.9000000000000004</v>
       </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="M18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J19" s="2">
         <v>2.4000000000000004</v>
       </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="M19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J20" s="2">
         <v>2</v>
       </c>
+      <c r="K20" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="M20" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="G21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J21" s="2">
         <v>2.8</v>
       </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="M21" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J22" s="2">
         <v>2</v>
       </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="M22" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J23" s="2">
         <v>2</v>
       </c>
+      <c r="K23" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="M23" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="E24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="G24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J24" s="2">
         <v>1.9000000000000004</v>
       </c>
+      <c r="K24" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="M24" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J25" s="2">
         <v>2</v>
       </c>
+      <c r="K25" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="M25" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J26" s="2">
         <v>2</v>
       </c>
+      <c r="K26" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="M26" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
